--- a/biology/Botanique/Jean-Pierre_Vibert/Jean-Pierre_Vibert.xlsx
+++ b/biology/Botanique/Jean-Pierre_Vibert/Jean-Pierre_Vibert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Vibert, né à Paris le 31 janvier 1777 et mort le 27 janvier 1866 à Montfort-l'Amaury (Yvelines)[1], est un rosiériste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Vibert, né à Paris le 31 janvier 1777 et mort le 27 janvier 1866 à Montfort-l'Amaury (Yvelines), est un rosiériste français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Vibert est le fils de Robert Vibert et d'Aimée-Françoise, née Leiris [1].
-Jeune homme, Vibert a servi dans l'armée de Napoléon dont il est un fervent admirateur. Dans son Essai sur les roses (Édition de 1826), et dans sa réponse à Pierre Boitard en page quinze, il précise avoir servi l'Empereur « avec honneur » pendant huit ans avant de quitter l'armée comme sergent aux voltigeurs [2] à la suite de ses blessures subies lors de la première campagne de Naples [3]. Après ses faits d'armes, il se tourne vers le jardinage et devient propriétaire d'une quincaillerie rue du Four à Paris. Son magasin était près de chez André Dupont, horticulteur de l'impératrice Joséphine. Il s'intéresse alors à la création de roses. En 1805, Il épouse Adélaïde Charlotte Heu (1785-1816), fille de Marie-Madeleine Desramées et de Théodore Heu, dentellier à Versailles [4] et avec laquelle il a trois enfants : Aimée, Adélaïde et Théodore, futur associé d'Adolphe Goupil et père du peintre Jean-Georges Vibert.
-En 1812, il vend son magasin de matériel. Peu de temps après, en 1813, il achète des terres à Chennevières-sur-Marne pour ouvrir une pépinière, où il hybride des roses, des arbres fruitiers et des vignes [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Vibert est le fils de Robert Vibert et d'Aimée-Françoise, née Leiris .
+Jeune homme, Vibert a servi dans l'armée de Napoléon dont il est un fervent admirateur. Dans son Essai sur les roses (Édition de 1826), et dans sa réponse à Pierre Boitard en page quinze, il précise avoir servi l'Empereur « avec honneur » pendant huit ans avant de quitter l'armée comme sergent aux voltigeurs  à la suite de ses blessures subies lors de la première campagne de Naples . Après ses faits d'armes, il se tourne vers le jardinage et devient propriétaire d'une quincaillerie rue du Four à Paris. Son magasin était près de chez André Dupont, horticulteur de l'impératrice Joséphine. Il s'intéresse alors à la création de roses. En 1805, Il épouse Adélaïde Charlotte Heu (1785-1816), fille de Marie-Madeleine Desramées et de Théodore Heu, dentellier à Versailles  et avec laquelle il a trois enfants : Aimée, Adélaïde et Théodore, futur associé d'Adolphe Goupil et père du peintre Jean-Georges Vibert.
+En 1812, il vend son magasin de matériel. Peu de temps après, en 1813, il achète des terres à Chennevières-sur-Marne pour ouvrir une pépinière, où il hybride des roses, des arbres fruitiers et des vignes .
 En 1815, le pionnier des rosiéristes Jacques-Louis Descemet (1761-1839) doit céder sa pépinière de Saint-Denis. En effet, il a de graves difficultés financières liées à l'occupation du nord de Paris par les troupes britanniques à la suite de la défaite de Waterloo. Vibert rachète alors la pépinière de Descemet avec ses dix mille plants et ses dossiers d'hybridation. Un mois plus tard, sa fille de 5 ans, Adélaïde, meurt et son épouse Adélaïde Charlotte meurt également quelques mois plus tard, le 17 janvier 1816.
 Vibert a été l'un des fondateurs de la Société d'horticulture de Paris en 1827 (maintenant Société nationale d'horticulture de France).
 Il déménage sa pépinière à Saint-Denis en janvier de cette année, en 1835 à Longjumeau au sud de Paris, et en 1839 au sud d'Angers.
@@ -549,9 +563,11 @@
           <t>Cultivars créés ou introduits par Jean-Pierre Vibert</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On répertorie aujourd'hui 545 variétés de rose créées ou distribuées par Vibert [6] dont voici quelques exemples :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On répertorie aujourd'hui 545 variétés de rose créées ou distribuées par Vibert  dont voici quelques exemples :
 'Aimable Rouge' (1811),
 'Armide' (1816),
 'Adèle Heu' (1816),
@@ -580,7 +596,7 @@
 'Hortense de Beauharnais'  (1834),
 'Blanchefleur' (1835),
 'Cuisse de Nymphe émue' (1835),
-'Gloire des Rosomanes' (1835) [7],
+'Gloire des Rosomanes' (1835) ,
 'Quatre Saisons' (1836),
 'Agar' (1836),
 'D'Aguesseau' (1836),
@@ -633,7 +649,9 @@
           <t>Quelques obtentions de Vibert</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			'Yolande d'Aragon' 1843, groupe: Damas, Hybride perpétuel, rose de Portland.
@@ -673,7 +691,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Observations sur la nomenclature et le classement des roses, suivies du catalogue de celles cultivées par J.-P. Vibert à Chenevières-sur-Marne - Mme Huzard, imprimeur-librairie, Paris, 1832.
 Essai sur les roses. Des inconvénients de la greffe du rosier sur l´églantier et des modifications qu´elle nécessite -  Mme Huzard, Paris, éditions de 1824 et 1826.
@@ -707,7 +727,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'arrière petit-fils de Jean-Pierre Vibert s'appelle également Jean-Pierre Vibert, il est aussi rosiériste. On peut voir ses créations sur http://www.jeanpierrevibert.com/</t>
         </is>
